--- a/ArrowSale201904.xlsx
+++ b/ArrowSale201904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Sites\rayteche.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonbackup\Python\Arrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3658,12 +3658,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3674,6 +3668,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3991,7 +3991,7 @@
   <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,34 +4006,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
